--- a/R2_score.xlsx
+++ b/R2_score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOPE\Machine-Learning\Regression\Assignment_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5247A42E-D93B-40B1-93FB-047F0AF9A655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F36234A-7451-4171-B7F9-F1700B861284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B8413DFD-784B-47F7-AB78-F08A1109CB67}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +124,32 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -159,6 +189,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92ED202-129B-4C8B-8F52-5BE92DA62AC6}">
   <dimension ref="D3:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,358 +538,359 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="5" spans="4:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D6">
+    <row r="6" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="10">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D7">
+      <c r="G6" s="10">
+        <f>H7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="10">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="10">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="10">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D8">
+    <row r="8" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="10">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="10">
         <v>100</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="10">
         <v>0.32</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D9">
+    <row r="9" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="10">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="10">
         <v>1000</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="10">
         <v>0.81</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D10">
+    <row r="10" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="11">
         <v>5</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="11">
         <v>2000</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="11">
         <v>0.85</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D11">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="12">
         <v>6</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="12">
         <v>3000</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="12">
         <v>0.86</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D12">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="10">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="10">
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="10">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D13">
+    <row r="13" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="10">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="10">
         <v>10</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="10">
         <v>0.46</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D14">
+    <row r="14" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="10">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="10">
         <v>100</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="10">
         <v>0.62</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D15">
+    <row r="15" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="10">
         <v>10</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="10">
         <v>1000</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="10">
         <v>0.76</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D16">
+    <row r="16" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="10">
         <v>11</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="10">
         <v>2000</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="10">
         <v>0.74</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17">
+    <row r="17" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="10">
         <v>12</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="10">
         <v>3000</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="10">
         <v>0.74</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18">
+    <row r="18" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="10">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="10">
         <v>1</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="10">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19">
+    <row r="19" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D19" s="10">
         <v>14</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="10">
         <v>10</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20">
+    <row r="20" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="10">
         <v>15</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="10">
         <v>100</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="10">
         <v>0.61</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21">
+    <row r="21" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D21" s="11">
         <v>16</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="11">
         <v>1000</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="11">
         <v>0.85</v>
       </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D22" s="12">
         <v>17</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="12">
         <v>2000</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="12">
         <v>0.86</v>
       </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D23" s="11">
         <v>18</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="11">
         <v>3000</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="11">
         <v>0.85</v>
       </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D24" s="10">
         <v>19</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="10">
         <v>1</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="10">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D25">
+    <row r="25" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D25" s="10">
         <v>20</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="10">
         <v>10</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s">
+    <row r="26" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D26" s="10">
+        <v>21</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="10">
         <v>100</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="10">
         <v>0.52</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>22</v>
-      </c>
-      <c r="E27" t="s">
+    <row r="27" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D27" s="10">
+        <v>22</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="10">
         <v>1000</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="10">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D28">
+    <row r="28" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D28" s="10">
         <v>23</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="10">
         <v>2000</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="10">
         <v>-0.59</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D29">
-        <v>24</v>
-      </c>
-      <c r="E29" t="s">
+    <row r="29" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D29" s="10">
+        <v>24</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="10">
         <v>3000</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="10">
         <v>-2</v>
       </c>
     </row>
@@ -920,6 +963,9 @@
       <c r="H36" t="s">
         <v>21</v>
       </c>
+      <c r="I36">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="37" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E37">
@@ -934,6 +980,9 @@
       <c r="H37" t="s">
         <v>21</v>
       </c>
+      <c r="I37">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="38" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E38">
@@ -948,6 +997,9 @@
       <c r="H38" t="s">
         <v>22</v>
       </c>
+      <c r="I38">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="39" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E39">
@@ -962,6 +1014,9 @@
       <c r="H39" t="s">
         <v>22</v>
       </c>
+      <c r="I39">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="40" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E40">
@@ -1010,6 +1065,9 @@
       <c r="H42" t="s">
         <v>21</v>
       </c>
+      <c r="I42">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="43" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E43">
@@ -1024,6 +1082,9 @@
       <c r="H43" t="s">
         <v>21</v>
       </c>
+      <c r="I43">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="44" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E44">
@@ -1038,6 +1099,9 @@
       <c r="H44" t="s">
         <v>22</v>
       </c>
+      <c r="I44">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="45" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E45">
@@ -1052,6 +1116,9 @@
       <c r="H45" t="s">
         <v>22</v>
       </c>
+      <c r="I45">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="46" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E46">
@@ -1071,20 +1138,20 @@
       </c>
     </row>
     <row r="47" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E47">
+      <c r="E47" s="1">
         <v>14</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0.76</v>
+      <c r="H47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.75060000000000004</v>
       </c>
     </row>
     <row r="48" spans="5:9" x14ac:dyDescent="0.25">
@@ -1100,7 +1167,9 @@
       <c r="H48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="3"/>
+      <c r="I48" s="3">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E49">
@@ -1115,7 +1184,9 @@
       <c r="H49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="3"/>
+      <c r="I49" s="3">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E50">
@@ -1130,7 +1201,9 @@
       <c r="H50" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E51">
@@ -1145,7 +1218,9 @@
       <c r="H51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="3"/>
+      <c r="I51" s="3">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E52">
@@ -1161,7 +1236,7 @@
         <v>24</v>
       </c>
       <c r="I52">
-        <v>0.71</v>
+        <v>0.7288</v>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.25">
@@ -1182,17 +1257,20 @@
       </c>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E54">
-        <v>21</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="E54" s="7">
+        <v>21</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>21</v>
+      <c r="H54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0.7591</v>
       </c>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.25">
@@ -1208,19 +1286,25 @@
       <c r="H55" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="I55">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E56">
+      <c r="E56" s="7">
         <v>23</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>22</v>
+      <c r="H56" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0.7591</v>
       </c>
     </row>
     <row r="57" spans="5:9" x14ac:dyDescent="0.25">
@@ -1236,6 +1320,9 @@
       <c r="H57" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="I57">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H58" s="3"/>
@@ -1246,8 +1333,8 @@
     <row r="60" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H60" s="3"/>
     </row>
-    <row r="62" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F62" t="s">
+    <row r="62" spans="5:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="F62" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1269,20 +1356,20 @@
       </c>
     </row>
     <row r="64" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E64" s="3">
+      <c r="E64" s="7">
         <v>1</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="8">
         <v>100</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="3">
-        <v>0.87</v>
+      <c r="H64" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0.871</v>
       </c>
     </row>
     <row r="65" spans="5:9" x14ac:dyDescent="0.25">
@@ -1303,20 +1390,20 @@
       </c>
     </row>
     <row r="66" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E66" s="3">
+      <c r="E66" s="7">
         <v>3</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="8">
         <v>100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0.87</v>
+      <c r="H66" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0.871</v>
       </c>
     </row>
     <row r="67" spans="5:9" x14ac:dyDescent="0.25">
@@ -1349,7 +1436,9 @@
       <c r="H68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I68" s="3"/>
+      <c r="I68" s="3">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E69" s="3">
@@ -1364,7 +1453,9 @@
       <c r="H69" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I69" s="3"/>
+      <c r="I69" s="3">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E70" s="3">
@@ -1379,7 +1470,9 @@
       <c r="H70" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I70" s="3"/>
+      <c r="I70" s="3">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="71" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E71" s="3">
@@ -1394,142 +1487,144 @@
       <c r="H71" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I71" s="3"/>
+      <c r="I71" s="3">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="72" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E72" s="3">
+      <c r="E72" s="7">
         <v>9</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="8">
         <v>100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="H72" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0.87109999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E73" s="1">
+        <v>10</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="6">
+        <v>50</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.87080000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E74" s="7">
+        <v>11</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="8">
+        <v>100</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" s="7">
+        <v>0.87109999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E75" s="1">
+        <v>12</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="6">
+        <v>50</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.87080000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E76" s="7">
+        <v>13</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="8">
+        <v>100</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="77" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E77" s="1">
+        <v>14</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="6">
+        <v>50</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="1">
         <v>0.87</v>
       </c>
     </row>
-    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E73" s="3">
-        <v>10</v>
-      </c>
-      <c r="F73" s="3" t="s">
+    <row r="78" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E78" s="1">
+        <v>15</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="6">
+        <v>100</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.87019999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E79" s="1">
         <v>16</v>
       </c>
-      <c r="G73" s="4">
+      <c r="F79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="6">
         <v>50</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I73" s="3">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="74" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E74" s="3">
-        <v>11</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="4">
-        <v>100</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I74" s="3">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="75" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E75" s="3">
-        <v>12</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="4">
-        <v>50</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I75" s="3">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="76" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E76" s="3">
-        <v>13</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="4">
-        <v>100</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="77" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E77" s="3">
-        <v>14</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="4">
-        <v>50</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="3">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="78" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E78" s="3">
-        <v>15</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="4">
-        <v>100</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I78" s="3">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="79" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E79" s="3">
-        <v>16</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="4">
-        <v>50</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I79" s="3">
-        <v>0.87</v>
+      <c r="H79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.87019999999999997</v>
       </c>
     </row>
     <row r="80" spans="5:9" x14ac:dyDescent="0.25">
@@ -1545,7 +1640,9 @@
       <c r="H80" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I80" s="3"/>
+      <c r="I80" s="3">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="81" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E81" s="3">
@@ -1560,7 +1657,9 @@
       <c r="H81" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I81" s="3"/>
+      <c r="I81" s="3">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E82" s="3">
@@ -1643,6 +1742,9 @@
       <c r="H86" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="I86" s="3">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="87" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E87" s="3">
@@ -1656,6 +1758,9 @@
       </c>
       <c r="H87" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="I87" s="3">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>

--- a/R2_score.xlsx
+++ b/R2_score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOPE\Machine-Learning\Regression\Assignment_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F36234A-7451-4171-B7F9-F1700B861284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573DE1EB-80E5-46A5-8800-6589ECA56631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B8413DFD-784B-47F7-AB78-F08A1109CB67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="32">
   <si>
     <t>S No</t>
   </si>
@@ -103,26 +103,37 @@
   </si>
   <si>
     <t>absolut_error</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Multiple Linear Regression (MLR)</t>
+  </si>
+  <si>
+    <t>Support Vector Machine Regression (SVMR)</t>
+  </si>
+  <si>
+    <t>Decision Tree Regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Forest Regression </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF222832"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -142,11 +153,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF222832"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -183,29 +210,461 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -216,6 +675,68 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D14BAB2-15AE-4821-A5B7-A069756D4EC8}" name="Table2" displayName="Table2" ref="D5:G29" totalsRowShown="0" headerRowDxfId="17" dataDxfId="18">
+  <autoFilter ref="D5:G29" xr:uid="{8D14BAB2-15AE-4821-A5B7-A069756D4EC8}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1082234B-82D7-46F4-8090-04204295A5CE}" name="S No" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{87544073-152B-4E59-BFAA-01B8D14BD18B}" name="kernel" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{FA0F5005-58D4-4A77-B81A-9E9B783F2F81}" name="Regularization parameter C" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{6CE48920-CDE1-41CB-A449-942DBC85E380}" name="R2 score" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA6C5A1A-0335-4874-8E7C-8C5FFFA75353}" name="Table3" displayName="Table3" ref="M40:M41" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="M40:M41" xr:uid="{EA6C5A1A-0335-4874-8E7C-8C5FFFA75353}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9882017D-5F39-4AC4-BCDF-5D48E3B6F13E}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D3A03396-93F3-41AF-98BB-7742F69C8148}" name="Table4" displayName="Table4" ref="E33:I57" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11">
+  <autoFilter ref="E33:I57" xr:uid="{D3A03396-93F3-41AF-98BB-7742F69C8148}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{FEE51340-6AB2-4C73-8A8B-C82CBD3E654E}" name="S No" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{61EBE660-58FB-4607-A798-94F062DAC230}" name="criterion" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{58C1AAAB-849C-4831-8EBA-D32FC1E6EC56}" name="splitter" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{9EC1798F-2160-4701-A793-0319A229FA48}" name="max_features" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{4B9DEBB9-A1AA-41B1-9348-A68F37AD6F06}" name="R2 score" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C6D502FD-DE1B-487D-8E4E-43F2319F66B5}" name="Table5" displayName="Table5" ref="E63:I87" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+  <autoFilter ref="E63:I87" xr:uid="{C6D502FD-DE1B-487D-8E4E-43F2319F66B5}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{48666832-5E9F-471B-A16D-7AD38490542B}" name="S No" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{352BDE69-F83B-4541-9DAA-14F5816CF345}" name="criterion" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{75444951-F9FA-4C4E-B268-D29E250932A9}" name="n_estimators" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{8E68DE7B-C0E2-436C-A1BF-52EDFF229EC2}" name="max_features" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{885E6632-6797-45FF-B006-618073A4969C}" name="R2 score" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{500858E9-69B8-45A0-BE48-B4E44316537E}" name="Table6" displayName="Table6" ref="F90:G94" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="F90:G94" xr:uid="{500858E9-69B8-45A0-BE48-B4E44316537E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8A230B7F-E488-4A6B-9B23-7C4EDEBBA3F8}" name="Algorithm" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{039ACA24-9773-4B36-B36E-0733922476B4}" name="R2 score" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,647 +1036,647 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92ED202-129B-4C8B-8F52-5BE92DA62AC6}">
-  <dimension ref="D3:I87"/>
+  <dimension ref="D3:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90:G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="8" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
+    <row r="4" spans="4:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="4:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="D5" s="9" t="s">
+    <row r="5" spans="4:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="10">
+    <row r="6" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="10">
-        <f>H7</f>
+      <c r="G6" s="5">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>100</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D11" s="6">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D12" s="5">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D14" s="5">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>100</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D15" s="5">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D16" s="5">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D17" s="5">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3000</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D18" s="5">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D19" s="5">
+        <v>14</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="5">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D20" s="5">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="5">
+        <v>100</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D21" s="5">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D22" s="6">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D23" s="5">
+        <v>18</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="5">
+        <v>3000</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D24" s="5">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D25" s="5">
+        <v>20</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="5">
+        <v>10</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D26" s="5">
+        <v>21</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="5">
+        <v>100</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D27" s="5">
+        <v>22</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D28" s="5">
+        <v>23</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G28" s="5">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D29" s="5">
+        <v>24</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3000</v>
+      </c>
+      <c r="G29" s="5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F32" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="E33" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="10">
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="10" t="s">
+    </row>
+    <row r="34" spans="5:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E35" s="5">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E36" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E37" s="5">
+        <v>4</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E38" s="5">
+        <v>5</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="39" spans="5:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E39" s="5">
+        <v>6</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E40" s="5">
+        <v>7</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="M40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E41" s="5">
+        <v>8</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="42" spans="5:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E42" s="5">
+        <v>9</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E43" s="5">
         <v>10</v>
       </c>
-      <c r="G7" s="10">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D8" s="10">
-        <v>3</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="10">
-        <v>100</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="10">
-        <v>4</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1000</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="11">
-        <v>5</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="11">
-        <v>2000</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D11" s="12">
-        <v>6</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="12">
-        <v>3000</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0.86</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D12" s="10">
-        <v>7</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="10">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="10">
-        <v>10</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D14" s="10">
-        <v>9</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="10">
-        <v>100</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="10">
-        <v>10</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1000</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="10">
+      <c r="F43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="44" spans="5:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E44" s="5">
         <v>11</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="10">
-        <v>2000</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="10">
+      <c r="F44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="45" spans="5:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E45" s="5">
         <v>12</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="10">
-        <v>3000</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="10">
+      <c r="F45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="46" spans="5:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E46" s="5">
         <v>13</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D19" s="10">
+      <c r="F46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="47" spans="5:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E47" s="9">
         <v>14</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="10">
-        <v>10</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D20" s="10">
-        <v>15</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="10">
-        <v>100</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D21" s="11">
+      <c r="F47" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1000</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D22" s="12">
-        <v>17</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="12">
-        <v>2000</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0.86</v>
-      </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D23" s="11">
-        <v>18</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="11">
-        <v>3000</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D24" s="10">
-        <v>19</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="10">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D25" s="10">
-        <v>20</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="10">
-        <v>10</v>
-      </c>
-      <c r="G25" s="10">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D26" s="10">
-        <v>21</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="10">
-        <v>100</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D27" s="10">
-        <v>22</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="10">
-        <v>1000</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D28" s="10">
-        <v>23</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="10">
-        <v>2000</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D29" s="10">
+      <c r="G47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="10">
-        <v>3000</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E39">
-        <v>6</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E40">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="41" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E41">
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="42" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E42">
-        <v>9</v>
-      </c>
-      <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="43" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E43">
-        <v>10</v>
-      </c>
-      <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="44" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E44">
-        <v>11</v>
-      </c>
-      <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="45" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E45">
-        <v>12</v>
-      </c>
-      <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="46" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E46">
-        <v>13</v>
-      </c>
-      <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="47" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="1">
-        <v>14</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" s="1">
+      <c r="I47" s="9">
         <v>0.75060000000000004</v>
       </c>
     </row>
-    <row r="48" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E48">
+    <row r="48" spans="5:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E48" s="5">
         <v>15</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -1167,12 +1688,12 @@
       <c r="H48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="5">
         <v>0.69</v>
       </c>
     </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49">
+    <row r="49" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E49" s="5">
         <v>16</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -1184,12 +1705,12 @@
       <c r="H49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="5">
         <v>0.64</v>
       </c>
     </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50">
+    <row r="50" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E50" s="5">
         <v>17</v>
       </c>
       <c r="F50" s="3" t="s">
@@ -1201,12 +1722,12 @@
       <c r="H50" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="5">
         <v>0.69</v>
       </c>
     </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51">
+    <row r="51" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E51" s="5">
         <v>18</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -1218,552 +1739,590 @@
       <c r="H51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="5">
         <v>0.64</v>
       </c>
     </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52">
+    <row r="52" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E52" s="5">
         <v>19</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="5">
         <v>0.7288</v>
       </c>
     </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E53">
+    <row r="53" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E53" s="5">
         <v>20</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="5">
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E54" s="7">
+    <row r="54" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E54" s="6">
         <v>21</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="6">
         <v>0.7591</v>
       </c>
     </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E55">
+    <row r="55" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E55" s="5">
         <v>22</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="5">
         <v>0.62</v>
       </c>
     </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E56" s="7">
+    <row r="56" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E56" s="6">
         <v>23</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="6">
         <v>0.7591</v>
       </c>
     </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E57">
+    <row r="57" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E57" s="5">
         <v>24</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="5">
         <v>0.62</v>
       </c>
     </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H60" s="3"/>
-    </row>
     <row r="62" spans="5:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E63" t="s">
+    <row r="63" spans="5:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="E63" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E64" s="7">
+    <row r="64" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E64" s="6">
         <v>1</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="6">
         <v>100</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="6">
         <v>0.871</v>
       </c>
     </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E65" s="3">
+    <row r="65" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E65" s="5">
         <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="5">
         <v>50</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="5">
         <v>0.86</v>
       </c>
     </row>
-    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E66" s="7">
+    <row r="66" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E66" s="6">
         <v>3</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="6">
         <v>100</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="6">
         <v>0.871</v>
       </c>
     </row>
-    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E67" s="3">
+    <row r="67" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E67" s="5">
         <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="5">
         <v>50</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="5">
         <v>0.86</v>
       </c>
     </row>
-    <row r="68" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E68" s="3">
+    <row r="68" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E68" s="5">
         <v>5</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="5">
         <v>100</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="5">
         <v>0.85</v>
       </c>
     </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E69" s="3">
+    <row r="69" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E69" s="5">
         <v>6</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="5">
         <v>50</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="5">
         <v>0.84</v>
       </c>
     </row>
-    <row r="70" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E70" s="3">
+    <row r="70" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E70" s="5">
         <v>7</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="5">
         <v>100</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="5">
         <v>0.85</v>
       </c>
     </row>
-    <row r="71" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E71" s="3">
+    <row r="71" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E71" s="5">
         <v>8</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="5">
         <v>50</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="5">
         <v>0.85</v>
       </c>
     </row>
-    <row r="72" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E72" s="7">
+    <row r="72" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E72" s="6">
         <v>9</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="6">
         <v>100</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="6">
         <v>0.87109999999999999</v>
       </c>
     </row>
-    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E73" s="1">
+    <row r="73" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E73" s="9">
         <v>10</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G73" s="9">
         <v>50</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H73" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="9">
         <v>0.87080000000000002</v>
       </c>
     </row>
-    <row r="74" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E74" s="7">
+    <row r="74" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E74" s="6">
         <v>11</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="6">
         <v>100</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="6">
         <v>0.87109999999999999</v>
       </c>
     </row>
-    <row r="75" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E75" s="1">
+    <row r="75" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E75" s="9">
         <v>12</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G75" s="9">
         <v>50</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="9">
         <v>0.87080000000000002</v>
       </c>
     </row>
-    <row r="76" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E76" s="7">
+    <row r="76" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E76" s="6">
         <v>13</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="6">
         <v>100</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76" s="6">
         <v>0.871</v>
       </c>
     </row>
-    <row r="77" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E77" s="1">
+    <row r="77" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E77" s="9">
         <v>14</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G77" s="9">
         <v>50</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H77" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="9">
         <v>0.87</v>
       </c>
     </row>
-    <row r="78" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E78" s="1">
+    <row r="78" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E78" s="9">
         <v>15</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G78" s="9">
         <v>100</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H78" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="9">
         <v>0.87019999999999997</v>
       </c>
     </row>
-    <row r="79" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E79" s="1">
+    <row r="79" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E79" s="9">
         <v>16</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="9">
         <v>50</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="9">
         <v>0.87019999999999997</v>
       </c>
     </row>
-    <row r="80" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E80" s="3">
+    <row r="80" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E80" s="5">
         <v>17</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="5">
         <v>100</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="5">
         <v>0.85</v>
       </c>
     </row>
-    <row r="81" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E81" s="3">
+    <row r="81" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E81" s="5">
         <v>18</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="5">
         <v>50</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="5">
         <v>0.85</v>
       </c>
     </row>
-    <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="3">
+    <row r="82" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E82" s="5">
         <v>19</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="5">
         <v>100</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="5">
         <v>0.86</v>
       </c>
     </row>
-    <row r="83" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E83" s="3">
+    <row r="83" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E83" s="5">
         <v>20</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="5">
         <v>50</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="5">
         <v>0.86</v>
       </c>
     </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E84" s="3">
+    <row r="84" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E84" s="5">
         <v>21</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="5">
         <v>100</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="5">
         <v>0.86</v>
       </c>
     </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E85" s="3">
+    <row r="85" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E85" s="5">
         <v>22</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="5">
         <v>50</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I85" s="5">
         <v>0.86</v>
       </c>
     </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E86" s="3">
+    <row r="86" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E86" s="5">
         <v>23</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="5">
         <v>100</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I86" s="5">
         <v>0.85</v>
       </c>
     </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E87" s="3">
+    <row r="87" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E87" s="5">
         <v>24</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="5">
         <v>50</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="5">
         <v>0.84</v>
+      </c>
+    </row>
+    <row r="90" spans="5:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="F90" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F91" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="92" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="93" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F93" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="94" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F94" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" s="6">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="5">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>